--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions, Creating Tables, and Managing Large Workbooks/Tree Inventory.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions, Creating Tables, and Managing Large Workbooks/Tree Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Using Functions, Creating Tables, and Managing Large Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions, Creating Tables, and Managing Large Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_F412DEF72157777AD9225100F20AB52B1D68CF96" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9547845A-DEF8-4505-A9DC-F1829C296410}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F412DEF72157777AD9225100F20AB52B1D68CF96" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{39DDF850-BA25-4BD5-8398-29877FE4D61B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>Quantity in Stock</t>
   </si>
@@ -208,12 +211,6 @@
   </si>
   <si>
     <t>Erosion Control</t>
-  </si>
-  <si>
-    <t>Maple  Trees</t>
-  </si>
-  <si>
-    <t>6 (571 total items in stock)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -256,7 +253,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,20 +301,22 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -328,14 +327,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
         <color theme="9"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -358,20 +357,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CEC069D-9DE9-487C-B91B-714A26BBCC56}" name="Table1" displayName="Table1" ref="A13:H42">
-  <autoFilter ref="A13:H42" xr:uid="{01086622-ED0B-4C77-8324-8F1D7EE343C4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:H42">
-    <sortCondition ref="B13:B42"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B0078F8-C970-4F22-B09E-0026BCA4ED3A}" name="Table1" displayName="Table1" ref="A13:H42" totalsRowShown="0">
+  <autoFilter ref="A13:H42" xr:uid="{F7737FE6-3DE2-47F9-8839-24964D2D9A0E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{56502734-A789-4570-96E5-58752B346F5D}" name="Quantity in Stock" totalsRowFunction="sum"/>
-    <tableColumn id="2" xr3:uid="{15D3DA61-EE64-4A39-A370-B7F11428D9E0}" name="Item #"/>
-    <tableColumn id="3" xr3:uid="{62E94B3C-7FB8-4054-A5FE-8C87A7906AB8}" name="Tree Name"/>
-    <tableColumn id="4" xr3:uid="{949E2016-3B79-45F5-9EF9-EFE768EDFBD3}" name="Retail Price" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{4ED0BB13-49C8-43E4-89E5-412B8F80BBA8}" name="Light"/>
-    <tableColumn id="6" xr3:uid="{E1EE81FF-9D15-4C92-8C4F-813D689D38D6}" name="Landscape Use"/>
-    <tableColumn id="7" xr3:uid="{D2BA541B-0204-480C-A183-D4D8BDFEFDAF}" name="Category"/>
-    <tableColumn id="8" xr3:uid="{B9146048-12B3-4479-9B84-4C52B41ECE68}" name="Stock Level">
+    <tableColumn id="1" xr3:uid="{0029D7BC-C7E3-40CB-AD32-62EB11F7B502}" name="Quantity in Stock"/>
+    <tableColumn id="2" xr3:uid="{7D3DF17D-E146-45CB-9445-07BB680BFE8A}" name="Item #"/>
+    <tableColumn id="3" xr3:uid="{F7E1203F-BA83-4B39-A748-90403FCC4C45}" name="Tree Name"/>
+    <tableColumn id="4" xr3:uid="{8AEEBE93-2CA9-4CB9-9A2B-543902D4BB96}" name="Retail Price" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E04BEAF8-1174-4DFF-B198-F6326DD74D66}" name="Light"/>
+    <tableColumn id="6" xr3:uid="{68D97AF0-83B5-4288-A038-73488E560D91}" name="Landscape Use"/>
+    <tableColumn id="7" xr3:uid="{FC0A7D45-42A2-491D-8A65-75DC3AF1A498}" name="Category"/>
+    <tableColumn id="8" xr3:uid="{B05536D0-C56B-4ABA-AF64-BD159D5C7CA0}" name="Stock Level">
       <calculatedColumnFormula>IF(A14&lt;75,"Order","OK")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -647,14 +643,14 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -664,103 +660,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <f>SUM(A14:A42)</f>
         <v>3022</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f>AVERAGE(D14:D42)</f>
         <v>107.88689655172411</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>MEDIAN(D14:D42)</f>
         <v>107.99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <f>MIN(D14:D42)</f>
         <v>102.99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>MAX(D14:D42)</f>
         <v>117.98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <f>COUNTIF(G14:G42,"Oak")</f>
         <v>13</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
@@ -793,19 +786,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>13129</v>
+        <v>38675</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>108.99</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <v>102.99</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -820,46 +813,46 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B15">
-        <v>13358</v>
+        <v>38700</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>106.95</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <v>103.75</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15" t="str">
         <f>IF(A15&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="B16">
-        <v>15688</v>
+        <v>37803</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>106.25</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="4">
+        <v>103.88</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -869,34 +862,34 @@
       </c>
       <c r="H16" t="str">
         <f>IF(A16&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>16555</v>
+        <v>34793</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>105.5</v>
+        <v>25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>103.98</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
       </c>
       <c r="H17" t="str">
         <f>IF(A17&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +902,7 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>103.99</v>
       </c>
       <c r="E18" t="s">
@@ -928,52 +921,52 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="B19">
-        <v>22189</v>
+        <v>43153</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>109.95</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="4">
+        <v>104.99</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H19" t="str">
         <f>IF(A19&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>23677</v>
+        <v>38744</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2">
-        <v>107.99</v>
+        <v>37</v>
+      </c>
+      <c r="D20" s="4">
+        <v>104.99</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="str">
         <f>IF(A20&lt;75,"Order","OK")</f>
@@ -982,25 +975,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>23688</v>
+        <v>16555</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2">
-        <v>109.95</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>105.5</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H21" t="str">
         <f>IF(A21&lt;75,"Order","OK")</f>
@@ -1009,15 +1002,15 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>24896</v>
+        <v>34982</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4">
         <v>105.99</v>
       </c>
       <c r="E22" t="s">
@@ -1027,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" t="str">
         <f>IF(A22&lt;75,"Order","OK")</f>
@@ -1036,16 +1029,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>25678</v>
+        <v>39704</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2">
-        <v>109.75</v>
+        <v>38</v>
+      </c>
+      <c r="D23" s="4">
+        <v>105.99</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1054,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H23" t="str">
         <f>IF(A23&lt;75,"Order","OK")</f>
@@ -1063,16 +1056,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B24">
-        <v>25844</v>
+        <v>24896</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>110.99</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>105.99</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1081,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="str">
         <f>IF(A24&lt;75,"Order","OK")</f>
@@ -1090,79 +1083,79 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>26787</v>
+        <v>15688</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2">
-        <v>108.5</v>
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>106.25</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
         <v>48</v>
       </c>
       <c r="H25" t="str">
         <f>IF(A25&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>32544</v>
+        <v>13358</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2">
-        <v>110.95</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>106.95</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" t="str">
         <f>IF(A26&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="B27">
-        <v>34266</v>
+        <v>34878</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2">
-        <v>109.99</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>107.78</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="str">
         <f>IF(A27&lt;75,"Order","OK")</f>
@@ -1171,52 +1164,52 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B28">
-        <v>34793</v>
+        <v>23677</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2">
-        <v>103.98</v>
+        <v>16</v>
+      </c>
+      <c r="D28" s="4">
+        <v>107.99</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" t="str">
         <f>IF(A28&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B29">
-        <v>34878</v>
+        <v>35690</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2">
-        <v>107.78</v>
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
+        <v>107.99</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H29" t="str">
         <f>IF(A29&lt;75,"Order","OK")</f>
@@ -1225,19 +1218,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>34982</v>
+        <v>26787</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2">
-        <v>105.99</v>
+        <v>21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>108.5</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1252,22 +1245,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="B31">
-        <v>35677</v>
+        <v>13129</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2">
-        <v>109.99</v>
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>108.99</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>48</v>
@@ -1279,16 +1272,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>35690</v>
+        <v>25678</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2">
-        <v>107.99</v>
+        <v>19</v>
+      </c>
+      <c r="D32" s="4">
+        <v>109.75</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1297,34 +1290,34 @@
         <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" t="str">
         <f>IF(A32&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>35988</v>
+        <v>23688</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <v>111.75</v>
+        <v>17</v>
+      </c>
+      <c r="D33" s="4">
+        <v>109.95</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="str">
         <f>IF(A33&lt;75,"Order","OK")</f>
@@ -1333,52 +1326,52 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>36820</v>
+        <v>22189</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2">
-        <v>110.95</v>
+        <v>14</v>
+      </c>
+      <c r="D34" s="4">
+        <v>109.95</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" t="str">
         <f>IF(A34&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="B35">
-        <v>37803</v>
+        <v>42599</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="2">
-        <v>103.88</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="4">
+        <v>109.98</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H35" t="str">
         <f>IF(A35&lt;75,"Order","OK")</f>
@@ -1387,25 +1380,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B36">
-        <v>37845</v>
+        <v>35677</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2">
-        <v>117.98</v>
+        <v>28</v>
+      </c>
+      <c r="D36" s="4">
+        <v>109.99</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H36" t="str">
         <f>IF(A36&lt;75,"Order","OK")</f>
@@ -1414,25 +1407,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B37">
-        <v>38675</v>
+        <v>34266</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2">
-        <v>102.99</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>109.99</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H37" t="str">
         <f>IF(A37&lt;75,"Order","OK")</f>
@@ -1441,25 +1434,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>38700</v>
+        <v>32544</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="2">
-        <v>103.75</v>
+        <v>22</v>
+      </c>
+      <c r="D38" s="4">
+        <v>110.95</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H38" t="str">
         <f>IF(A38&lt;75,"Order","OK")</f>
@@ -1468,70 +1461,70 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B39">
-        <v>38744</v>
+        <v>36820</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2">
-        <v>104.99</v>
+        <v>31</v>
+      </c>
+      <c r="D39" s="4">
+        <v>110.95</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="str">
         <f>IF(A39&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="B40">
-        <v>39704</v>
+        <v>25844</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2">
-        <v>105.99</v>
+        <v>20</v>
+      </c>
+      <c r="D40" s="4">
+        <v>110.99</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H40" t="str">
         <f>IF(A40&lt;75,"Order","OK")</f>
-        <v>Order</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>42599</v>
+        <v>35988</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="2">
-        <v>109.98</v>
+        <v>30</v>
+      </c>
+      <c r="D41" s="4">
+        <v>111.75</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1540,34 +1533,34 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" t="str">
         <f>IF(A41&lt;75,"Order","OK")</f>
-        <v>OK</v>
+        <v>Order</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="B42">
-        <v>43153</v>
+        <v>37845</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2">
-        <v>104.99</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="4">
+        <v>117.98</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" t="str">
         <f>IF(A42&lt;75,"Order","OK")</f>
@@ -1576,12 +1569,12 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="H14:H42">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Order">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Order">
       <formula>NOT(ISERROR(SEARCH("Order",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1594,13 +1587,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64FF39AF-A65D-44A6-9D8D-D8BEF4AF846A}</x14:id>
+          <x14:id>{E0685733-DF51-432F-BD16-52722357A9E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1608,7 +1604,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64FF39AF-A65D-44A6-9D8D-D8BEF4AF846A}">
+          <x14:cfRule type="dataBar" id="{E0685733-DF51-432F-BD16-52722357A9E3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
